--- a/Payload/test_Data/TestData.xlsx
+++ b/Payload/test_Data/TestData.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arshad Mehmood\OneDrive - Riphah International University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arshad Mehmood\OneDrive - Riphah International University\Desktop\MPOPlayWright\Payload\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF2948F-0C63-419F-A779-85A6F7AD6977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28220DF9-C5C3-4D74-A82D-5F8565B5ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyHoliday" sheetId="1" r:id="rId1"/>
+    <sheet name="CommentTemplates" sheetId="2" r:id="rId2"/>
+    <sheet name="CriteriaLibrary" sheetId="3" r:id="rId3"/>
+    <sheet name="EmployeeSuccession" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +28,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Holiday Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>National Holiday</t>
+  </si>
+  <si>
+    <t>1/22/2025</t>
+  </si>
+  <si>
+    <t>Holiday Name2</t>
+  </si>
+  <si>
+    <t>Date1</t>
+  </si>
+  <si>
+    <t>Holiday Name1</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>1/1/2025</t>
+  </si>
+  <si>
+    <t>Comment Name</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Test Comments(Added by Automation)</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Succession</t>
+  </si>
+  <si>
+    <t>Rediness</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>Testing add note succession(Added by Automation)</t>
   </si>
 </sst>
 </file>
@@ -72,9 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,26 +414,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B100B664-FFAE-4560-A173-D34EFD0BC0FB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CE3E0-B99C-4F95-95E3-9AEDE254C032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A95774-DF39-4551-80F7-17254C4273C0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Payload/test_Data/TestData.xlsx
+++ b/Payload/test_Data/TestData.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arshad Mehmood\OneDrive - Riphah International University\Desktop\MPOPlayWright\Payload\test_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MPOPlayWright\Payload\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28220DF9-C5C3-4D74-A82D-5F8565B5ED44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E97C0-F6C0-4E6C-BB4C-2FEB1B67B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1992" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyHoliday" sheetId="1" r:id="rId1"/>
     <sheet name="CommentTemplates" sheetId="2" r:id="rId2"/>
     <sheet name="CriteriaLibrary" sheetId="3" r:id="rId3"/>
     <sheet name="EmployeeSuccession" sheetId="4" r:id="rId4"/>
+    <sheet name="KudosSetting" sheetId="5" r:id="rId5"/>
+    <sheet name="PerformanceJournal" sheetId="6" r:id="rId6"/>
+    <sheet name="PerformanceReview" sheetId="7" r:id="rId7"/>
+    <sheet name="ReviewWorkflow" sheetId="8" r:id="rId8"/>
+    <sheet name="ViewAnnouncements" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>National Holiday</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>1/22/2025</t>
   </si>
@@ -42,9 +44,6 @@
     <t>Date1</t>
   </si>
   <si>
-    <t>Holiday Name1</t>
-  </si>
-  <si>
     <t>Date2</t>
   </si>
   <si>
@@ -54,21 +53,12 @@
     <t>1/1/2025</t>
   </si>
   <si>
-    <t>Comment Name</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>Test Comments(Added by Automation)</t>
   </si>
   <si>
-    <t>Employee</t>
-  </si>
-  <si>
     <t>Succession</t>
   </si>
   <si>
@@ -78,9 +68,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
     <t>amy</t>
   </si>
   <si>
@@ -88,13 +75,79 @@
   </si>
   <si>
     <t>Testing add note succession(Added by Automation)</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A detailed account of the certain or salient aspects, characteristics, or features of a subject matter or something seen, heard, or otherwise experienced or known</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Testing Employee Title</t>
+  </si>
+  <si>
+    <t>Testing name</t>
+  </si>
+  <si>
+    <t>Testing the description section</t>
+  </si>
+  <si>
+    <t>Testing the instructions section</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Insturctions</t>
+  </si>
+  <si>
+    <t>test name</t>
+  </si>
+  <si>
+    <t>Test descripation employer</t>
+  </si>
+  <si>
+    <t>Descripation</t>
+  </si>
+  <si>
+    <t>Stimulate your mind as you test your typing speed with this standard English paragraph typing test</t>
+  </si>
+  <si>
+    <t>Summary for testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summary </t>
+  </si>
+  <si>
+    <t>Release Date</t>
+  </si>
+  <si>
+    <t>Release Time</t>
+  </si>
+  <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>5:40 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +155,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,11 +195,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,43 +506,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -467,29 +556,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -499,15 +588,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2CE3E0-B99C-4F95-95E3-9AEDE254C032}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -515,45 +636,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A95774-DF39-4551-80F7-17254C4273C0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="59.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3800D2A3-6286-40CF-BF9A-69B46A571F1C}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5E4FA6-8925-4696-98EF-8652A2765471}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBEE45E-4953-4DC3-93A0-82265E2E3657}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0695589-F800-419D-A934-10ECFDAADA23}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545BB96E-4B22-45E4-AF01-EB177A409034}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Payload/test_Data/TestData.xlsx
+++ b/Payload/test_Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MPOPlayWright\Payload\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E97C0-F6C0-4E6C-BB4C-2FEB1B67B802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E5099-74B7-4B6E-8058-D53EF13D5E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1992" windowWidth="17280" windowHeight="8880" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="2100" windowWidth="17280" windowHeight="8880" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyHoliday" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="PerformanceReview" sheetId="7" r:id="rId7"/>
     <sheet name="ReviewWorkflow" sheetId="8" r:id="rId8"/>
     <sheet name="ViewAnnouncements" sheetId="9" r:id="rId9"/>
+    <sheet name="EmployeeWarning" sheetId="10" r:id="rId10"/>
+    <sheet name="OKR" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>1/22/2025</t>
   </si>
@@ -138,6 +140,90 @@
   </si>
   <si>
     <t>5:40 AM</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Reason Description</t>
+  </si>
+  <si>
+    <t>Manage Reason</t>
+  </si>
+  <si>
+    <t>Test Reason</t>
+  </si>
+  <si>
+    <t>Testing the reason description</t>
+  </si>
+  <si>
+    <t>Manage Category</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category Description</t>
+  </si>
+  <si>
+    <t>Test Category</t>
+  </si>
+  <si>
+    <t>Testing Category Description</t>
+  </si>
+  <si>
+    <t>Add Warning</t>
+  </si>
+  <si>
+    <t>Incident Date</t>
+  </si>
+  <si>
+    <t>Incident Description</t>
+  </si>
+  <si>
+    <t>2/11/2025</t>
+  </si>
+  <si>
+    <t>Testing Incident Description</t>
+  </si>
+  <si>
+    <t>OKR Categories</t>
+  </si>
+  <si>
+    <t>Test OKR</t>
+  </si>
+  <si>
+    <t>Testing the OKR Categories Descripton</t>
+  </si>
+  <si>
+    <t>Add OKR</t>
+  </si>
+  <si>
+    <t>Objective Title</t>
+  </si>
+  <si>
+    <t>Testing Objective Ttitle</t>
+  </si>
+  <si>
+    <t>Objective Description</t>
+  </si>
+  <si>
+    <t>Testing the OKR Objective Description</t>
+  </si>
+  <si>
+    <t>Start date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>2/18/2025</t>
+  </si>
+  <si>
+    <t>2/27/2025</t>
   </si>
 </sst>
 </file>
@@ -145,7 +231,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -163,7 +249,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -214,7 +306,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -223,6 +315,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,12 +644,178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93CF7A9-7269-4BA9-B0C9-68F4B12E8BFC}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEA016-379A-4B8B-BA27-920EF6349C83}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B100B664-FFAE-4560-A173-D34EFD0BC0FB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -574,7 +833,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -637,12 +896,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="59.5546875" customWidth="1"/>
@@ -663,8 +922,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -816,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545BB96E-4B22-45E4-AF01-EB177A409034}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Payload/test_Data/TestData.xlsx
+++ b/Payload/test_Data/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MPOPlayWright\Payload\test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572E5099-74B7-4B6E-8058-D53EF13D5E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5935F1-DAD8-4640-AB38-D5DECA132E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="2100" windowWidth="17280" windowHeight="8880" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="2100" windowWidth="17280" windowHeight="8880" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompanyHoliday" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="ViewAnnouncements" sheetId="9" r:id="rId9"/>
     <sheet name="EmployeeWarning" sheetId="10" r:id="rId10"/>
     <sheet name="OKR" sheetId="11" r:id="rId11"/>
+    <sheet name="Quiz" sheetId="12" r:id="rId12"/>
+    <sheet name="ApplicationFormSetting" sheetId="13" r:id="rId13"/>
+    <sheet name="InterviewLists" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>1/22/2025</t>
   </si>
@@ -224,6 +227,63 @@
   </si>
   <si>
     <t>2/27/2025</t>
+  </si>
+  <si>
+    <t>Add Quiz</t>
+  </si>
+  <si>
+    <t>Quiz Name</t>
+  </si>
+  <si>
+    <t>Testing Quiz</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Testing Quiz Description in detail</t>
+  </si>
+  <si>
+    <t>Add Duestion</t>
+  </si>
+  <si>
+    <t>What is QA ?</t>
+  </si>
+  <si>
+    <t>Question Score</t>
+  </si>
+  <si>
+    <t>Form Name</t>
+  </si>
+  <si>
+    <t>Testing the field</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Test Box</t>
+  </si>
+  <si>
+    <t>Checklist Name</t>
+  </si>
+  <si>
+    <t>Testing list</t>
+  </si>
+  <si>
+    <t>Interviewer Instructions</t>
+  </si>
+  <si>
+    <t>Testing Answer all the Questions</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>What is Testing?</t>
   </si>
 </sst>
 </file>
@@ -249,7 +309,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -316,6 +382,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAEA016-379A-4B8B-BA27-920EF6349C83}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -803,6 +870,140 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810AAE0E-FE2A-448B-B066-4EC4A0777E13}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2736F33-EB06-4EA0-8071-2766DE69FF9C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A372956A-4C30-40D0-866E-2BDBFFBAFB38}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
